--- a/digital nissaya project.xlsx
+++ b/digital nissaya project.xlsx
@@ -1,43 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasee\gitee\digital-nissaya\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92836751-4A12-45DA-9CA1-F0DE917457E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>sn</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>Myanmarese Title</t>
@@ -46,55 +28,50 @@
     <t>Title</t>
   </si>
   <si>
-    <t>pages</t>
+    <t>Pages</t>
   </si>
   <si>
-    <t>price
+    <t>Price
 Ks/page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>balance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Amount
+(Ks)</t>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Balance</t>
   </si>
   <si>
-    <t>amount
-(Ks)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>total page</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Aiyang</t>
   </si>
   <si>
     <t>transfer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Aiyang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>computer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -102,18 +79,355 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -123,70 +437,344 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -233,7 +821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -268,7 +856,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -443,77 +1031,79 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="6" max="6" width="14.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="19.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="9.55555555555556"/>
+    <col min="9" max="9" width="7.22222222222222" customWidth="1"/>
+    <col min="10" max="10" width="14.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="36.75" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
         <v>4300000</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <f>G2</f>
         <v>4300000</v>
       </c>
@@ -521,22 +1111,25 @@
         <f>E2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="5">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="E3">
         <v>681</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>800</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <f>-E3*F3</f>
         <v>-544800</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <f>H2+G3</f>
         <v>3755200</v>
       </c>
@@ -544,22 +1137,25 @@
         <f>I2+E3</f>
         <v>681</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="5">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="E4">
         <v>436</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>800</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <f t="shared" ref="G4:G8" si="0">-E4*F4</f>
         <v>-348800</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <f t="shared" ref="H4:H67" si="1">H3+G4</f>
         <v>3406400</v>
       </c>
@@ -567,22 +1163,25 @@
         <f t="shared" ref="I4:I67" si="2">I3+E4</f>
         <v>1117</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="5">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="E5">
         <v>645</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>800</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>-516000</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <f t="shared" si="1"/>
         <v>2890400</v>
       </c>
@@ -590,22 +1189,25 @@
         <f t="shared" si="2"/>
         <v>1762</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="5">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="E6">
         <v>661</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>800</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>-528800</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
         <v>2361600</v>
       </c>
@@ -613,22 +1215,25 @@
         <f t="shared" si="2"/>
         <v>2423</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="5">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="E7">
         <v>574</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>800</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>-459200</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <f t="shared" si="1"/>
         <v>1902400</v>
       </c>
@@ -636,22 +1241,25 @@
         <f t="shared" si="2"/>
         <v>2997</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="5">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="E8">
         <v>460</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>800</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>-368000</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
         <v>1534400</v>
       </c>
@@ -659,1222 +1267,1421 @@
         <f t="shared" si="2"/>
         <v>3457</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="5">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="G9" s="4">
         <v>-1000000</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+      <c r="J9" s="5">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="H14">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="H15">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="H16">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="H17">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="H18">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="H19">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="H20">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="H21">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="H22">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="H23">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="H24">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="H25">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="H26">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="H27">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="H28">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="H29">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="H30">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="H31">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="H32">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="H33">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="H34">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="H35">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="H36">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="H37">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="H38">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="H39">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="H40">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="H41">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="H42">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="H43">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="H44">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="H45">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="H46">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="H47">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="H48">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="H49">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="H50">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="H51">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="H52">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="H53">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="H54">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="H55">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="H56">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="H57">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="H58">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="H59">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="H60">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="H61">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="H62">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="H63">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="H64">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="H65">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="H66">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="H67">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4">
         <f t="shared" si="1"/>
         <v>534400</v>
       </c>
       <c r="I67">
         <f t="shared" si="2"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="H68">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4">
         <f t="shared" ref="H68:H101" si="3">H67+G68</f>
         <v>534400</v>
       </c>
       <c r="I68">
         <f t="shared" ref="I68:I101" si="4">I67+E68</f>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="H69">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I69">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="H70">
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I70">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="H71">
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I71">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="H72">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I72">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="H73">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I73">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="H74">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I74">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="H75">
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I75">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="H76">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I76">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="H77">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I77">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="H78">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I78">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="H79">
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I79">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="H80">
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I80">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="H81">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I81">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="H82">
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I82">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="H83">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I83">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="H84">
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I84">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="H85">
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I85">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="H86">
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I86">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="H87">
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I87">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="H88">
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I88">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="H89">
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I89">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="H90">
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I90">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="H91">
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I91">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="H92">
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I92">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="H93">
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I93">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="H94">
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I94">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="H95">
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I95">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="H96">
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I96">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="H97">
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I97">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="H98">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I98">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="H99">
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I99">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="H100">
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I100">
         <f t="shared" si="4"/>
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="H101">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4">
         <f t="shared" si="3"/>
         <v>534400</v>
       </c>
       <c r="I101">
         <f t="shared" si="4"/>
-        <v>3457</v>
+        <v>3458</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>